--- a/bioSample/bioSample_2496.xlsx
+++ b/bioSample/bioSample_2496.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5272F-64A8-8347-89FA-B1B55E8FA685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="20860" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="62">
   <si>
     <t>harvestDate</t>
   </si>
@@ -28,21 +34,12 @@
     <t>experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
     <t>strain</t>
   </si>
   <si>
     <t>genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>09.29.17</t>
   </si>
   <si>
-    <t>Retrofitted_2496</t>
-  </si>
-  <si>
     <t>CNAG_00193</t>
   </si>
   <si>
@@ -137,13 +131,88 @@
   </si>
   <si>
     <t>37C.CO2</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>90minuteinduction</t>
+  </si>
+  <si>
+    <t>KN99alpha</t>
+  </si>
+  <si>
+    <t>TDY2099</t>
+  </si>
+  <si>
+    <t>TDY2257</t>
+  </si>
+  <si>
+    <t>TDY2100</t>
+  </si>
+  <si>
+    <t>TDY2101</t>
+  </si>
+  <si>
+    <t>TDY2102</t>
+  </si>
+  <si>
+    <t>TDY2103</t>
+  </si>
+  <si>
+    <t>TDY2104</t>
+  </si>
+  <si>
+    <t>TDY2105</t>
+  </si>
+  <si>
+    <t>TDY2106</t>
+  </si>
+  <si>
+    <t>TDY2107</t>
+  </si>
+  <si>
+    <t>TDY2108</t>
+  </si>
+  <si>
+    <t>TDY2109</t>
+  </si>
+  <si>
+    <t>TDY2110</t>
+  </si>
+  <si>
+    <t>TDY2111</t>
+  </si>
+  <si>
+    <t>TDY2112</t>
+  </si>
+  <si>
+    <t>TDY2113</t>
+  </si>
+  <si>
+    <t>TDY2114</t>
+  </si>
+  <si>
+    <t>TDY2115</t>
+  </si>
+  <si>
+    <t>TDY2116</t>
+  </si>
+  <si>
+    <t>TDY2117</t>
+  </si>
+  <si>
+    <t>TDY2118</t>
+  </si>
+  <si>
+    <t>TDY2119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +224,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,17 +271,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +369,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +421,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,1232 +654,1532 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <v>90</v>
-      </c>
-      <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>90</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>90</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>90</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
       <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>90</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22">
-        <v>90</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23">
-        <v>90</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>90</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24">
-        <v>90</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
       <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25">
-        <v>90</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
       <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
       <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27">
-        <v>90</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28">
-        <v>90</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H28">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
       <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29">
-        <v>90</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H29">
+        <v>90</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
-      <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>90</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="H30">
+        <v>90</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31">
-        <v>90</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
       <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32">
-        <v>90</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>90</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
       <c r="G33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33">
-        <v>90</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34">
-        <v>90</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
       <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35">
-        <v>90</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>90</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36">
-        <v>90</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H36">
+        <v>90</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
       <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37">
-        <v>90</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <v>90</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
       <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38">
-        <v>90</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
       <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39">
-        <v>90</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
       <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40">
-        <v>90</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
       <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41">
-        <v>90</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42">
-        <v>90</v>
-      </c>
-      <c r="L42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H42">
+        <v>90</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
       <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43">
-        <v>90</v>
-      </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H43">
+        <v>90</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
       <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44">
-        <v>90</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
       <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45">
-        <v>90</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
       <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K46">
-        <v>90</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
       <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>90</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
       <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48">
-        <v>90</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
       <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49">
-        <v>90</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H49">
+        <v>90</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
       <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50">
-        <v>90</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H50">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
       <c r="G51" t="s">
         <v>36</v>
       </c>
-      <c r="J51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K51">
-        <v>90</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="H51">
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
       <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52">
-        <v>90</v>
-      </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
       <c r="G53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53">
-        <v>90</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="H53">
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54">
-        <v>90</v>
-      </c>
-      <c r="L54">
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>90</v>
+      </c>
+      <c r="I54">
         <v>4</v>
       </c>
     </row>

--- a/bioSample/bioSample_2496.xlsx
+++ b/bioSample/bioSample_2496.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226F2CF-6B82-A747-AE54-9B2B28D397ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7E910-F9E6-3043-B78C-86272A1F0FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="39">
   <si>
     <t>harvestDate</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>90minuteinduction</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D3" sqref="D3:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,6 +569,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
@@ -589,6 +595,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -612,6 +621,9 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -635,6 +647,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -658,6 +673,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -681,6 +699,9 @@
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -704,6 +725,9 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -727,6 +751,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
@@ -750,6 +777,9 @@
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -773,6 +803,9 @@
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -796,6 +829,9 @@
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -819,6 +855,9 @@
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
@@ -842,6 +881,9 @@
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
@@ -865,6 +907,9 @@
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
@@ -888,6 +933,9 @@
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
@@ -911,6 +959,9 @@
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
@@ -934,6 +985,9 @@
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
@@ -957,6 +1011,9 @@
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" t="s">
         <v>21</v>
       </c>
@@ -980,6 +1037,9 @@
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
@@ -1003,6 +1063,9 @@
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
@@ -1026,6 +1089,9 @@
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
@@ -1049,6 +1115,9 @@
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
@@ -1072,6 +1141,9 @@
       <c r="C24">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
@@ -1095,6 +1167,9 @@
       <c r="C25">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
@@ -1118,6 +1193,9 @@
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
@@ -1141,6 +1219,9 @@
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
       <c r="F27" t="s">
         <v>29</v>
       </c>
@@ -1164,6 +1245,9 @@
       <c r="C28">
         <v>27</v>
       </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
@@ -1187,6 +1271,9 @@
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
@@ -1210,6 +1297,9 @@
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
       <c r="F30" t="s">
         <v>32</v>
       </c>
@@ -1233,6 +1323,9 @@
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
@@ -1256,6 +1349,9 @@
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
@@ -1279,6 +1375,9 @@
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
       <c r="F33" t="s">
         <v>35</v>
       </c>
@@ -1302,6 +1401,9 @@
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
@@ -1325,6 +1427,9 @@
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
@@ -1348,6 +1453,9 @@
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
@@ -1371,6 +1479,9 @@
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
@@ -1394,6 +1505,9 @@
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
@@ -1417,6 +1531,9 @@
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
@@ -1440,6 +1557,9 @@
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
       <c r="F40" t="s">
         <v>21</v>
       </c>
@@ -1463,6 +1583,9 @@
       <c r="C41">
         <v>40</v>
       </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
@@ -1486,6 +1609,9 @@
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
@@ -1509,6 +1635,9 @@
       <c r="C43">
         <v>42</v>
       </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
@@ -1532,6 +1661,9 @@
       <c r="C44">
         <v>43</v>
       </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
@@ -1555,6 +1687,9 @@
       <c r="C45">
         <v>44</v>
       </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
       <c r="F45" t="s">
         <v>27</v>
       </c>
@@ -1578,6 +1713,9 @@
       <c r="C46">
         <v>45</v>
       </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
@@ -1601,6 +1739,9 @@
       <c r="C47">
         <v>46</v>
       </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
       <c r="F47" t="s">
         <v>28</v>
       </c>
@@ -1624,6 +1765,9 @@
       <c r="C48">
         <v>47</v>
       </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
       <c r="F48" t="s">
         <v>29</v>
       </c>
@@ -1647,6 +1791,9 @@
       <c r="C49">
         <v>48</v>
       </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
       <c r="F49" t="s">
         <v>30</v>
       </c>
@@ -1670,6 +1817,9 @@
       <c r="C50">
         <v>49</v>
       </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
       <c r="F50" t="s">
         <v>31</v>
       </c>
@@ -1693,6 +1843,9 @@
       <c r="C51">
         <v>50</v>
       </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
       <c r="F51" t="s">
         <v>32</v>
       </c>
@@ -1716,6 +1869,9 @@
       <c r="C52">
         <v>51</v>
       </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
       <c r="F52" t="s">
         <v>33</v>
       </c>
@@ -1739,6 +1895,9 @@
       <c r="C53">
         <v>52</v>
       </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
@@ -1761,6 +1920,9 @@
       </c>
       <c r="C54">
         <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
       </c>
       <c r="F54" t="s">
         <v>35</v>

--- a/bioSample/bioSample_2496.xlsx
+++ b/bioSample/bioSample_2496.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="64">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">37C.CO2</t>
   </si>
   <si>
+    <t xml:space="preserve">NAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNAG_00460</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_00505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAT</t>
   </si>
   <si>
     <t xml:space="preserve">TDY451</t>
@@ -226,6 +226,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,7 +311,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,9 +319,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -387,6 +388,9 @@
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -416,6 +420,9 @@
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -445,6 +452,9 @@
       <c r="I4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -460,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
@@ -470,6 +480,9 @@
       </c>
       <c r="I5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
@@ -496,6 +509,9 @@
       </c>
       <c r="I6" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
@@ -522,6 +538,9 @@
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>15</v>
@@ -553,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,10 +589,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>15</v>
@@ -585,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
